--- a/4-1/전산통계/3주차/(3주차)엑셀실습-complete.xlsx
+++ b/4-1/전산통계/3주차/(3주차)엑셀실습-complete.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Haram/Desktop/찬욱/건국대학교/4-1/전산통계/3주차/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Haram/Project/University/4-1/전산통계/3주차/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67975869-DE1F-124A-A4AE-4C02237B3791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4ABA80F-2367-2849-9276-C3F3BAE7A515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20140" activeTab="4" xr2:uid="{E08401E7-6973-4EA8-9FA5-E370EC99E996}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20080" activeTab="2" xr2:uid="{E08401E7-6973-4EA8-9FA5-E370EC99E996}"/>
   </bookViews>
   <sheets>
     <sheet name="ex1-2" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -297,10 +297,11 @@
     <t>More</t>
   </si>
   <si>
-    <t>Frequency</t>
+    <t>Cumulative %</t>
   </si>
   <si>
-    <t>Cumulative %</t>
+    <t>Frequency</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -309,7 +310,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0%"/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -525,26 +526,17 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -566,6 +558,15 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -979,342 +980,6 @@
       <a:endParaRPr lang="ko-Kore-KR"/>
     </a:p>
   </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en" altLang="ko-KR"/>
-              <a:t>Histogram</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Frequency</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>데이터분석!$A$15:$A$21</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>More</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>데이터분석!$B$15:$B$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1F4F-E040-84DC-2788C694044F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="1795926128"/>
-        <c:axId val="1512843120"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Cumulative %</c:v>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>데이터분석!$A$15:$A$21</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>More</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>데이터분석!$C$15:$C$21</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>3.3333333333333333E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.13333333333333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.26666666666666666</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.56666666666666665</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.8666666666666667</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1F4F-E040-84DC-2788C694044F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="984994320"/>
-        <c:axId val="985597520"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1795926128"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en" altLang="ko-KR"/>
-                  <a:t>Bin</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1512843120"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1512843120"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en" altLang="ko-KR"/>
-                  <a:t>Frequency</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1795926128"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="985597520"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="984994320"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="984994320"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="985597520"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -1847,6 +1512,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8829-7445-A677-23C3C3543175}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1867,6 +1537,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8829-7445-A677-23C3C3543175}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1887,6 +1562,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-8829-7445-A677-23C3C3543175}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1907,6 +1587,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-8829-7445-A677-23C3C3543175}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2226,6 +1911,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-BDAE-B741-9AE5-6C1EC5C8D938}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2246,6 +1936,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-BDAE-B741-9AE5-6C1EC5C8D938}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2266,6 +1961,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-BDAE-B741-9AE5-6C1EC5C8D938}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -2286,6 +1986,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-BDAE-B741-9AE5-6C1EC5C8D938}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2907,392 +2612,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="ko-KR" altLang="en-US"/>
-              <a:t>중간고사 성적</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-Kore-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ko-Kore-KR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>'ex1-4'!$E$6:$E$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ex1-4'!$F$6:$F$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-753C-EE43-BFE2-EA6B112FF85A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="0"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1015279008"/>
-        <c:axId val="1015281440"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1015279008"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-Kore-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1015281440"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1015281440"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-Kore-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1015279008"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ko-Kore-KR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US"/>
               <a:t>도수분포다각형</a:t>
             </a:r>
           </a:p>
@@ -3686,438 +3005,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US"/>
-              <a:t>도수분포다각형</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" altLang="ko-KR"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-Kore-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="ko-Kore-KR"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>도수분포다각형!$A$2:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>105</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>도수분포다각형!$B$2:$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8298-7E42-BC3B-67338C05B9DB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="t"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="982807440"/>
-        <c:axId val="983551072"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="982807440"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-Kore-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="983551072"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="983551072"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-Kore-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="982807440"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-Kore-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ko-Kore-KR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -4881,6 +3769,347 @@
       <a:endParaRPr lang="ko-Kore-KR"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>히스토그램</a:t>
+            </a:r>
+            <a:endParaRPr lang="en" altLang="ko-KR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Frequency</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>데이터분석!$A$15:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>More</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>데이터분석!$B$15:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1F4F-E040-84DC-2788C694044F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1795926128"/>
+        <c:axId val="1512843120"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Cumulative %</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>데이터분석!$A$15:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>More</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>데이터분석!$C$15:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1F4F-E040-84DC-2788C694044F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="984994320"/>
+        <c:axId val="985597520"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1795926128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ko-KR" altLang="en-US"/>
+                  <a:t>계급</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="ko-KR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1512843120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1512843120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ko-KR" altLang="en-US"/>
+                  <a:t>빈도수</a:t>
+                </a:r>
+                <a:endParaRPr lang="en" altLang="ko-KR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1795926128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="2"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="985597520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="984994320"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="984994320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="985597520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -5169,86 +4398,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -7799,509 +6948,6 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8817,523 +7463,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10041,42 +8171,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="차트 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E99DA545-9EBD-B64D-8A60-16FD24912E74}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10113,42 +8207,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="차트 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55926235-3818-8A43-88A3-EE5A55A8307A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10771,23 +8829,23 @@
       <c r="A13" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
@@ -13306,7 +11364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3B8539-61FB-4D8E-8862-4F7FE6A22BA9}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -13393,7 +11451,7 @@
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -13507,10 +11565,10 @@
       <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="16"/>
+      <c r="J5" s="28"/>
       <c r="K5" s="13" t="s">
         <v>9</v>
       </c>
@@ -13768,10 +11826,10 @@
         <f>SUM(_xlfn.ANCHORARRAY(F6))</f>
         <v>30</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="16"/>
+      <c r="J13" s="28"/>
       <c r="K13" s="13">
         <f>SUM(K6:K12)</f>
         <v>30</v>
@@ -13784,38 +11842,38 @@
       <c r="N13" s="14"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="17"/>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="18" t="s">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="17" t="s">
         <v>9</v>
       </c>
       <c r="H18" t="s">
@@ -13835,19 +11893,19 @@
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18" t="s">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="16">
         <f>MIN(A1:J3)</f>
         <v>37</v>
       </c>
-      <c r="D19" s="19"/>
-      <c r="E19" s="18">
+      <c r="D19" s="17"/>
+      <c r="E19" s="16">
         <v>40</v>
       </c>
-      <c r="F19" s="20" cm="1">
+      <c r="F19" s="18" cm="1">
         <f t="array" ref="F19:F25">FREQUENCY(A1:J3,E19:E24)</f>
         <v>1</v>
       </c>
@@ -13857,30 +11915,30 @@
       <c r="I19" t="s">
         <v>47</v>
       </c>
-      <c r="J19" s="21">
+      <c r="J19" s="19">
         <f>F19</f>
         <v>1</v>
       </c>
-      <c r="K19" s="23">
+      <c r="K19" s="20">
         <f>J19/$J$26</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L19" s="19">
         <f>J19</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18" t="s">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="16">
         <f>MAX(A1:J3)</f>
         <v>97</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="18">
+      <c r="D20" s="17"/>
+      <c r="E20" s="16">
         <v>50</v>
       </c>
       <c r="F20">
@@ -13892,25 +11950,25 @@
       <c r="I20" t="s">
         <v>54</v>
       </c>
-      <c r="J20" s="21">
+      <c r="J20" s="19">
         <f t="shared" ref="J20:J25" si="4">F20</f>
         <v>3</v>
       </c>
-      <c r="K20" s="23">
+      <c r="K20" s="20">
         <f t="shared" ref="K20:K25" si="5">J20/$J$26</f>
         <v>0.1</v>
       </c>
-      <c r="L20" s="21">
+      <c r="L20" s="19">
         <f>SUM(J19:J20)</f>
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="18">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="16">
         <v>60</v>
       </c>
       <c r="F21">
@@ -13922,25 +11980,25 @@
       <c r="I21" t="s">
         <v>55</v>
       </c>
-      <c r="J21" s="21">
+      <c r="J21" s="19">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="K21" s="23">
+      <c r="K21" s="20">
         <f t="shared" si="5"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="L21" s="21">
+      <c r="L21" s="19">
         <f>SUM(J19:J21)</f>
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="18">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="16">
         <v>70</v>
       </c>
       <c r="F22">
@@ -13952,25 +12010,25 @@
       <c r="I22" t="s">
         <v>56</v>
       </c>
-      <c r="J22" s="21">
+      <c r="J22" s="19">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="K22" s="23">
+      <c r="K22" s="20">
         <f t="shared" si="5"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="L22" s="21">
+      <c r="L22" s="19">
         <f>SUM(J19:J22)</f>
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="18">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="16">
         <v>80</v>
       </c>
       <c r="F23">
@@ -13982,17 +12040,17 @@
       <c r="I23" t="s">
         <v>57</v>
       </c>
-      <c r="J23" s="21">
+      <c r="J23" s="19">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="K23" s="23">
+      <c r="K23" s="20">
         <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="E24" s="18">
+      <c r="E24" s="16">
         <v>90</v>
       </c>
       <c r="F24">
@@ -14004,11 +12062,11 @@
       <c r="I24" t="s">
         <v>58</v>
       </c>
-      <c r="J24" s="21">
+      <c r="J24" s="19">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="K24" s="23">
+      <c r="K24" s="20">
         <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
@@ -14020,11 +12078,11 @@
       <c r="H25" t="s">
         <v>53</v>
       </c>
-      <c r="J25" s="21">
+      <c r="J25" s="19">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="K25" s="23">
+      <c r="K25" s="20">
         <f t="shared" si="5"/>
         <v>0.13333333333333333</v>
       </c>
@@ -14033,19 +12091,19 @@
       <c r="E26" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="19">
         <f>SUM(F19:F25)</f>
         <v>30</v>
       </c>
-      <c r="H26" s="22" t="s">
+      <c r="H26" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="21">
+      <c r="I26" s="29"/>
+      <c r="J26" s="19">
         <f>SUM(J19:J25)</f>
         <v>30</v>
       </c>
-      <c r="K26" s="23">
+      <c r="K26" s="20">
         <f>SUM(K19:K25)</f>
         <v>1</v>
       </c>
@@ -14066,8 +12124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E722405-4F23-4E97-B448-76DAA8D340A5}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -14355,7 +12413,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:C21"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -14493,90 +12551,90 @@
     </row>
     <row r="13" spans="1:10" ht="18" thickBot="1"/>
     <row r="14" spans="1:10">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="C14" s="27" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="24">
+      <c r="A15" s="21">
         <v>40</v>
       </c>
-      <c r="B15" s="25">
-        <v>1</v>
-      </c>
-      <c r="C15" s="28">
+      <c r="B15" s="22">
+        <v>1</v>
+      </c>
+      <c r="C15" s="25">
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="24">
+      <c r="A16" s="21">
         <v>50</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="22">
         <v>3</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="25">
         <v>0.13333333333333333</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="24">
+      <c r="A17" s="21">
         <v>60</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="22">
         <v>2</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="25">
         <v>0.2</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="24">
+      <c r="A18" s="21">
         <v>70</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="22">
         <v>2</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="25">
         <v>0.26666666666666666</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="24">
+      <c r="A19" s="21">
         <v>80</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="22">
         <v>9</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="25">
         <v>0.56666666666666665</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="24">
+      <c r="A20" s="21">
         <v>90</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="22">
         <v>9</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="25">
         <v>0.8666666666666667</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="18" thickBot="1">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B21" s="23">
         <v>4</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="26">
         <v>1</v>
       </c>
     </row>
